--- a/src/initial_pws/summary.xlsx
+++ b/src/initial_pws/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\geofluids\research\FNO\src\initial_pws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7DAF2B-6947-43F7-BB45-92BB1495F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB60EAA-96E8-4231-9EBF-02C912DE5507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="3490" windowWidth="19420" windowHeight="11020" xr2:uid="{3E8E4DE5-175D-4343-AA5D-73AF4945CF4B}"/>
   </bookViews>
@@ -515,11 +515,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>6.8357549999999998</v>
+        <v>6.8357640000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>6.8342609999999997</v>
-      </c>
+        <v>6.8342700000000001</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -527,11 +528,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>-2.6290460000000002</v>
+        <v>-2.6290559999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>-2.5748350000000002</v>
-      </c>
+        <v>-2.574846</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -539,11 +541,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2.3126730000000002E-2</v>
+        <v>2.312668E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>2.9439750000000001E-2</v>
-      </c>
+        <v>2.9439699999999999E-2</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -554,8 +557,9 @@
         <v>8.8800000000000004E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>9.3799439999999998E-2</v>
-      </c>
+        <v>9.3799460000000001E-2</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -566,8 +570,9 @@
         <v>8.7500000000000002E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>9.2607810000000003E-4</v>
-      </c>
+        <v>9.2607819999999995E-4</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -575,11 +580,12 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>9.3000359999999994E-3</v>
+        <v>9.3000700000000006E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.145154E-2</v>
-      </c>
+        <v>1.1451589999999999E-2</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -587,11 +593,12 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0267010000000001E-3</v>
+        <v>2.0266569999999999E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.881305E-3</v>
-      </c>
+        <v>1.8812639999999999E-3</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -604,6 +611,7 @@
       <c r="C9" s="1">
         <v>0.1392766</v>
       </c>
+      <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -614,8 +622,9 @@
         <v>1.000104E-16</v>
       </c>
       <c r="C10" s="1">
-        <v>9.9317200000000003E-17</v>
-      </c>
+        <v>9.9317159999999998E-17</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -628,6 +637,7 @@
       <c r="C11" s="1">
         <v>2.337517E-4</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -640,6 +650,7 @@
       <c r="C12" s="1">
         <v>3.3100959999999998E-5</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -647,11 +658,12 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0000030000000001E-16</v>
+        <v>1.3507169999999999E-8</v>
       </c>
       <c r="C13" s="1">
-        <v>1.000006E-16</v>
-      </c>
+        <v>1.109302E-8</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -662,8 +674,9 @@
         <v>6.80009E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>1.793529E-2</v>
-      </c>
+        <v>1.7935320000000001E-2</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
